--- a/Templates/mrt.xlsx
+++ b/Templates/mrt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Größe</t>
   </si>
   <si>
-    <t>Architekturstörung</t>
-  </si>
-  <si>
     <t>Intramammäre Lympknoten</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Tiefe</t>
   </si>
   <si>
-    <t>Charakeristika</t>
-  </si>
-  <si>
     <t>Verteilung</t>
   </si>
   <si>
@@ -141,6 +135,18 @@
   </si>
   <si>
     <t>Thoraxwandinfiltration</t>
+  </si>
+  <si>
+    <t>Histologie</t>
+  </si>
+  <si>
+    <t>Inneren Enhancements</t>
+  </si>
+  <si>
+    <t>Größe Non Mass Enhancement</t>
+  </si>
+  <si>
+    <t>Architekturstörung_ohneEnhancement</t>
   </si>
 </sst>
 </file>
@@ -500,32 +506,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF14F8EA-867B-448A-8CB2-C8F6355B8A36}">
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.7265625" style="1"/>
+    <col min="1" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.7265625" style="1"/>
     <col min="12" max="12" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="8.7265625" style="1"/>
-    <col min="19" max="21" width="8.90625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.7265625" style="1"/>
-    <col min="27" max="27" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="8.7265625" style="1"/>
-    <col min="33" max="34" width="19.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7265625" style="1"/>
+    <col min="13" max="19" width="8.7265625" style="1"/>
+    <col min="20" max="23" width="8.90625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.7265625" style="1"/>
+    <col min="29" max="30" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.7265625" style="1"/>
+    <col min="38" max="38" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
@@ -539,114 +545,119 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Templates/mrt.xlsx
+++ b/Templates/mrt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Architekturstörung_ohneEnhancement</t>
+  </si>
+  <si>
+    <t>Enhancement vorhanden</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF14F8EA-867B-448A-8CB2-C8F6355B8A36}">
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,26 +518,28 @@
     <col min="1" max="6" width="8.7265625" style="1"/>
     <col min="7" max="7" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.7265625" style="1"/>
-    <col min="12" max="12" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="8.7265625" style="1"/>
-    <col min="20" max="23" width="8.90625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.7265625" style="1"/>
-    <col min="29" max="30" width="19.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.7265625" style="1"/>
-    <col min="38" max="38" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.7265625" style="1"/>
+    <col min="9" max="12" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.7265625" style="1"/>
+    <col min="20" max="20" width="8.90625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="8.90625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.7265625" style="1"/>
+    <col min="30" max="31" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.7265625" style="1"/>
+    <col min="39" max="39" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,13 +574,13 @@
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -596,66 +601,69 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
